--- a/jour17.xlsx
+++ b/jour17.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Palaversa', 'Ripart', 'Palaversa']</t>
-  </si>
-  <si>
-    <t>['Terrier']</t>
-  </si>
-  <si>
-    <t>['Pallois', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Diop', 'Laborde', 'Pepe']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Spierings']</t>
-  </si>
-  <si>
-    <t>['Kroupi']</t>
-  </si>
-  <si>
-    <t>['Borges', 'Maurer', 'Massolin']</t>
-  </si>
-  <si>
-    <t>['Gigot']</t>
-  </si>
-  <si>
-    <t>['Verrati', 'Mbappe']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Serrano', 'Ben_Yedder']</t>
+    <t>['Djiku', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Autret', 'Merdji']</t>
+  </si>
+  <si>
+    <t>['Yoro', 'Cabella']</t>
+  </si>
+  <si>
+    <t>['Gigot', 'Payet']</t>
+  </si>
+  <si>
+    <t>['Sibide', 'Serrano', 'Sibide']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Alphonse', 'Vidal']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Laporte']</t>
+  </si>
+  <si>
+    <t>['Tavares', 'Le_Douaron']</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>['Moalida', 'Serhuis']</t>
-  </si>
-  <si>
-    <t>['Tolisso', 'Sanchez']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Khazri']</t>
-  </si>
-  <si>
-    <t>['Chardonnet', 'Chardonnet']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Gudmundsson', 'Cabella']</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Merdji']</t>
-  </si>
-  <si>
-    <t>['Boura', 'Medina', 'Varane']</t>
-  </si>
-  <si>
-    <t>[]</t>
+    <t>['Maurer', 'Massolin']</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Lepenant']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Assignon', 'Wooh', 'Kalimuendo']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Moffi', 'Diop', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Blas', 'Delort']</t>
+  </si>
+  <si>
+    <t>['Boura', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Kipembe', 'Messi']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Savanier', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Porozo', 'Chavalerin']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,7 +677,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,7 +805,7 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour17.xlsx
+++ b/jour17.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Djiku', 'Lienard']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Autret', 'Merdji']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Cabella']</t>
-  </si>
-  <si>
-    <t>['Gigot', 'Payet']</t>
-  </si>
-  <si>
-    <t>['Sibide', 'Serrano', 'Sibide']</t>
-  </si>
-  <si>
-    <t>['Flips', 'Munetsi']</t>
-  </si>
-  <si>
-    <t>['Alphonse', 'Vidal']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Laporte']</t>
-  </si>
-  <si>
-    <t>['Tavares', 'Le_Douaron']</t>
+    <t>['Djiku', 'Gameiro']</t>
+  </si>
+  <si>
+    <t>['Ripart', 'Balde']</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Gusto']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce', 'Mavididi', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Ramos']</t>
+  </si>
+  <si>
+    <t>['Burlet']</t>
+  </si>
+  <si>
+    <t>['Elis']</t>
+  </si>
+  <si>
+    <t>['Rajot', 'Gastien', 'Boyer']</t>
+  </si>
+  <si>
+    <t>['Bryan', 'Moffi']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Van_den_Boomen']</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
     <t>OM</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>AS Monaco</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>['Maurer', 'Massolin']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Lepenant']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Assignon', 'Wooh', 'Kalimuendo']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Moffi', 'Diop', 'Brahimi']</t>
-  </si>
-  <si>
-    <t>['Blas', 'Delort']</t>
-  </si>
-  <si>
-    <t>['Boura', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Kipembe', 'Messi']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Porozo', 'Chavalerin']</t>
+    <t>['Varane', 'Fortes']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Rodon', 'Theate']</t>
+  </si>
+  <si>
+    <t>['Autret', 'Danois', 'Danois', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Clauss']</t>
+  </si>
+  <si>
+    <t>['Munetsi']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Bamba', 'Bamba']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Sibide', 'Sibide']</t>
+  </si>
+  <si>
+    <t>['Silla', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Guessand']</t>
   </si>
 </sst>
 </file>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +602,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,7 +718,7 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -726,7 +726,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -825,7 +825,7 @@
         <v>2</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour17.xlsx
+++ b/jour17.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Djiku', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['Ripart', 'Balde']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce', 'Mavididi', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Mbappe', 'Ramos']</t>
-  </si>
-  <si>
-    <t>['Burlet']</t>
-  </si>
-  <si>
-    <t>['Elis']</t>
-  </si>
-  <si>
-    <t>['Rajot', 'Gastien', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Moffi']</t>
-  </si>
-  <si>
-    <t>['Healey', 'Van_den_Boomen']</t>
+    <t>['Terrier', 'Gouiri', 'Terrier', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Bayo', 'Gastien', 'Borges']</t>
+  </si>
+  <si>
+    <t>['Conte', 'Salmier', 'Conte']</t>
+  </si>
+  <si>
+    <t>['Diallo', 'Hamouma', 'Silla']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Bain']</t>
+  </si>
+  <si>
+    <t>['Moffi', 'Brahimi']</t>
+  </si>
+  <si>
+    <t>['Pereira', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Aouar']</t>
+  </si>
+  <si>
+    <t>['Payet']</t>
+  </si>
+  <si>
+    <t>['Neymar']</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nice</t>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>['Varane', 'Fortes']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Rodon', 'Theate']</t>
-  </si>
-  <si>
-    <t>['Autret', 'Danois', 'Danois', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Clauss']</t>
-  </si>
-  <si>
-    <t>['Munetsi']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Bamba', 'Bamba']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Sibide', 'Sibide']</t>
-  </si>
-  <si>
-    <t>['Silla', 'Lebas']</t>
-  </si>
-  <si>
-    <t>['Guessand']</t>
+    <t>['Martin', 'Andre', 'Martin', 'David']</t>
+  </si>
+  <si>
+    <t>['Duverne', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Serhuis', 'Ito']</t>
+  </si>
+  <si>
+    <t>['Sima', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Savanier', 'Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Delaine', 'Bellegarde', 'H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Castelletto', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Le_Fee', 'Kroupi']</t>
+  </si>
+  <si>
+    <t>['Maripan', 'Ben_Yedder']</t>
+  </si>
+  <si>
+    <t>['Dallinga']</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,10 +561,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,15 +573,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,12 +631,12 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -651,7 +651,7 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,12 +660,12 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,7 +747,7 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,15 +776,15 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -810,10 +810,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,7 +822,7 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>1</v>

--- a/jour17.xlsx
+++ b/jour17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Terrier', 'Gouiri', 'Terrier', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Bayo', 'Gastien', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Salmier', 'Conte']</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Hamouma', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Brahimi']</t>
-  </si>
-  <si>
-    <t>['Pereira', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Payet']</t>
+    <t>['Pepe', 'Attal', 'Moffi', 'Moffi']</t>
+  </si>
+  <si>
+    <t>['Guessand', 'Castelletto', 'Coco']</t>
+  </si>
+  <si>
+    <t>['Medina', 'Gradit']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Pelon', 'Silva']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Cisse']</t>
+  </si>
+  <si>
+    <t>['Lega', 'Sanchez']</t>
+  </si>
+  <si>
+    <t>['Kabore']</t>
   </si>
   <si>
     <t>['Neymar']</t>
   </si>
   <si>
+    <t>['Elis']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Clermont</t>
+    <t>Auxerre</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
+    <t>AS Monaco</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Martin', 'Andre', 'Martin', 'David']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Flips', 'Serhuis', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Sima', 'Guillaume']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Sainte-Luce']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Bellegarde', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Castelletto', 'Blas']</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Kroupi']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Dallinga']</t>
+    <t>['Maouassa']</t>
+  </si>
+  <si>
+    <t>['Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['Dembele', 'Merdji', 'Merdji']</t>
+  </si>
+  <si>
+    <t>['Porozo', 'Chavalerin']</t>
+  </si>
+  <si>
+    <t>['Cajuste', 'Flips', 'Moalida']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Masson', 'Mendy']</t>
+  </si>
+  <si>
+    <t>['Michelin', 'Diallo']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Ben_Seguir', 'Pele', 'Embolo']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Djiku']</t>
   </si>
 </sst>
 </file>
@@ -549,10 +546,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -564,7 +561,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,12 +570,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -593,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,12 +599,12 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -619,27 +616,27 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -651,24 +648,24 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -686,18 +683,18 @@
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -715,7 +712,7 @@
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
         <v>3</v>
@@ -723,10 +720,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,27 +732,27 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,7 +761,7 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -773,10 +770,10 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +781,7 @@
         <v>5</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -796,24 +793,24 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,19 +819,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour17.xlsx
+++ b/jour17.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Terrier', 'Gouiri', 'Terrier', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Bayo', 'Gastien', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Conte', 'Salmier', 'Conte']</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Hamouma', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Dembele', 'Bain']</t>
-  </si>
-  <si>
-    <t>['Moffi', 'Brahimi']</t>
-  </si>
-  <si>
-    <t>['Pereira', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Payet']</t>
-  </si>
-  <si>
-    <t>['Neymar']</t>
+    <t>['Bain', 'Merdji', 'Lipinski', 'Lipinski']</t>
+  </si>
+  <si>
+    <t>['Pelon', 'Kroupi', 'Silva', 'Kroupi']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Capelle', 'Bamba', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Boura', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Vidal']</t>
+  </si>
+  <si>
+    <t>['Embolo', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Germain']</t>
+  </si>
+  <si>
+    <t>['Wieteska', 'Cisse']</t>
+  </si>
+  <si>
+    <t>['Pallois']</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Troyes</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lens</t>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>['Martin', 'Andre', 'Martin', 'David']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Flips', 'Serhuis', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Sima', 'Guillaume']</t>
-  </si>
-  <si>
-    <t>['Savanier', 'Sainte-Luce']</t>
-  </si>
-  <si>
-    <t>['Delaine', 'Bellegarde', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Castelletto', 'Blas']</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Kroupi']</t>
-  </si>
-  <si>
-    <t>['Maripan', 'Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Dallinga']</t>
+    <t>['Balde', 'Odobert']</t>
+  </si>
+  <si>
+    <t>['Assignon', 'Majer']</t>
+  </si>
+  <si>
+    <t>['Tavares']</t>
+  </si>
+  <si>
+    <t>['David']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Zeneli', 'Moalida']</t>
+  </si>
+  <si>
+    <t>['Delaine', 'Lienard']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Balerdi']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Gusto']</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -564,7 +564,7 @@
         <v>4</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,12 +573,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -590,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <v>2</v>
@@ -602,12 +602,12 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -619,10 +619,10 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,12 +631,12 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -709,7 +709,7 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,15 +718,15 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -747,15 +747,15 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -776,12 +776,12 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -805,12 +805,12 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B11">
         <v>1</v>

--- a/jour17.xlsx
+++ b/jour17.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +43,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['H.Diallo', 'Djiku', 'H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Beka', 'Beka', 'Dante']</t>
-  </si>
-  <si>
-    <t>['Chavalerin', 'Lopez', 'Ripart']</t>
-  </si>
-  <si>
-    <t>['Innocent', 'Laporte']</t>
-  </si>
-  <si>
-    <t>['Corduan']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Yoro']</t>
-  </si>
-  <si>
-    <t>['Fortes']</t>
-  </si>
-  <si>
-    <t>['Majer']</t>
-  </si>
-  <si>
-    <t>['Ruiz']</t>
-  </si>
-  <si>
-    <t>['Lipinski']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Tchato', 'Savanier', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Ben_Seguir', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Burlet', 'Martin']</t>
+  </si>
+  <si>
+    <t>['H.Diallo', 'Djiku']</t>
+  </si>
+  <si>
+    <t>['Ganago']</t>
+  </si>
+  <si>
+    <t>['Aboukhlal']</t>
+  </si>
+  <si>
+    <t>['Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Theate']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lille</t>
   </si>
   <si>
     <t>Strasbourg</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
     <t>Nice</t>
   </si>
   <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Lille</t>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
   </si>
   <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
+    <t>Brest</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Massolin']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Savanier']</t>
-  </si>
-  <si>
-    <t>['Munetsi']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Roure', 'Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Lopez', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Elis']</t>
-  </si>
-  <si>
-    <t>['Gusto', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Pele', 'Jakobs']</t>
+    <t>['Cajuste']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Attal']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Conte', 'Ripart', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Mbappe', 'Ruiz']</t>
+  </si>
+  <si>
+    <t>['Borges', 'Boyer']</t>
+  </si>
+  <si>
+    <t>['Bercola', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Gonzalez']</t>
+  </si>
+  <si>
+    <t>['Boura', 'Ganiou']</t>
+  </si>
+  <si>
+    <t>['Elis']</t>
+  </si>
+  <si>
+    <t>['Bailly']</t>
   </si>
 </sst>
 </file>
@@ -512,13 +518,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,295 +549,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B2">
+        <v>25</v>
+      </c>
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6">
         <v>3</v>
       </c>
-      <c r="F2">
+      <c r="K6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="K7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
       </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8">
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1">
+      <c r="K9">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
         <v>5</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9">
+      <c r="B10">
+        <v>28</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>45</v>
-      </c>
-      <c r="I10">
+      <c r="K10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+      <c r="K11">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
